--- a/comparacion_categorias.xlsx
+++ b/comparacion_categorias.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/lv_perdomoc1_uniandes_edu_co/Documents/MINE 2024-2/CIENCIA DE DATOS APLICADA/Talleres/Taller 2/Ciencia-de-datos.-Taller-2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_8419EC7EB88E2627FDD9C4FD90BA76B65D8EC249" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E698269-8C00-47D9-ABD4-95A32014E71F}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$E$82</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,302 +28,293 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="89">
-  <si>
-    <t xml:space="preserve">train</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golden-Delicious/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granny-Smith/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pink-Lady/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red-Delicious/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royal-Gala/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avocado/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banana/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiwi/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lemon/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lime/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mango/</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>Golden-Delicious/</t>
+  </si>
+  <si>
+    <t>Granny-Smith/</t>
+  </si>
+  <si>
+    <t>Pink-Lady/</t>
+  </si>
+  <si>
+    <t>Red-Delicious/</t>
+  </si>
+  <si>
+    <t>Royal-Gala/</t>
+  </si>
+  <si>
+    <t>Avocado/</t>
+  </si>
+  <si>
+    <t>Banana/</t>
+  </si>
+  <si>
+    <t>Kiwi/</t>
+  </si>
+  <si>
+    <t>Lemon/</t>
+  </si>
+  <si>
+    <t>Lime/</t>
+  </si>
+  <si>
+    <t>Mango/</t>
   </si>
   <si>
     <t xml:space="preserve">Mango/		</t>
   </si>
   <si>
-    <t xml:space="preserve">Cantaloupe/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galia-Melon/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honeydew-Melon/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watermelon/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nectarine/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papaya/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passion-Fruit/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peach/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anjou/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conference/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaiser/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pineapple/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plum/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pomegranate/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red-Grapefruit/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satsumas/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bravo-Apple-Juice/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bravo-Orange-Juice/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">God-Morgon-Apple-Juice/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">God-Morgon-Orange-Juice/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">God-Morgon-Orange-Red-Grapefruit-Juice/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">God-Morgon-Red-Grapefruit-Juice/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tropicana-Apple-Juice/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tropicana-Golden-Grapefruit/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tropicana-Juice-Smooth/</t>
+    <t>Cantaloupe/</t>
+  </si>
+  <si>
+    <t>Galia-Melon/</t>
+  </si>
+  <si>
+    <t>Honeydew-Melon/</t>
+  </si>
+  <si>
+    <t>Watermelon/</t>
+  </si>
+  <si>
+    <t>Nectarine/</t>
+  </si>
+  <si>
+    <t>Orange/</t>
+  </si>
+  <si>
+    <t>Papaya/</t>
+  </si>
+  <si>
+    <t>Passion-Fruit/</t>
+  </si>
+  <si>
+    <t>Peach/</t>
+  </si>
+  <si>
+    <t>Anjou/</t>
+  </si>
+  <si>
+    <t>Conference/</t>
+  </si>
+  <si>
+    <t>Kaiser/</t>
+  </si>
+  <si>
+    <t>Pineapple/</t>
+  </si>
+  <si>
+    <t>Plum/</t>
+  </si>
+  <si>
+    <t>Pomegranate/</t>
+  </si>
+  <si>
+    <t>Red-Grapefruit/</t>
+  </si>
+  <si>
+    <t>Satsumas/</t>
+  </si>
+  <si>
+    <t>Bravo-Apple-Juice/</t>
+  </si>
+  <si>
+    <t>Bravo-Orange-Juice/</t>
+  </si>
+  <si>
+    <t>God-Morgon-Apple-Juice/</t>
+  </si>
+  <si>
+    <t>God-Morgon-Orange-Juice/</t>
+  </si>
+  <si>
+    <t>God-Morgon-Orange-Red-Grapefruit-Juice/</t>
+  </si>
+  <si>
+    <t>God-Morgon-Red-Grapefruit-Juice/</t>
+  </si>
+  <si>
+    <t>Tropicana-Apple-Juice/</t>
+  </si>
+  <si>
+    <t>Tropicana-Golden-Grapefruit/</t>
+  </si>
+  <si>
+    <t>Tropicana-Juice-Smooth/</t>
   </si>
   <si>
     <t xml:space="preserve">Tropicana-Mandarin-Morning/		</t>
   </si>
   <si>
-    <t xml:space="preserve">Arla-Ecological-Medium-Fat-Milk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arla-Lactose-Medium-Fat-Milk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arla-Medium-Fat-Milk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arla-Standard-Milk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garant-Ecological-Medium-Fat-Milk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garant-Ecological-Standard-Milk/</t>
+    <t>Arla-Ecological-Medium-Fat-Milk/</t>
+  </si>
+  <si>
+    <t>Arla-Lactose-Medium-Fat-Milk/</t>
+  </si>
+  <si>
+    <t>Arla-Medium-Fat-Milk/</t>
+  </si>
+  <si>
+    <t>Arla-Standard-Milk/</t>
+  </si>
+  <si>
+    <t>Garant-Ecological-Medium-Fat-Milk/</t>
+  </si>
+  <si>
+    <t>Garant-Ecological-Standard-Milk/</t>
   </si>
   <si>
     <t xml:space="preserve">Oatly-Oat-Milk/		</t>
   </si>
   <si>
-    <t xml:space="preserve">Oatly-Oat-Milk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oatly-Natural-Oatghurt/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arla-Ecological-Sour-Cream/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arla-Sour-Cream/</t>
+    <t>Oatly-Oat-Milk/</t>
+  </si>
+  <si>
+    <t>Oatly-Natural-Oatghurt/</t>
+  </si>
+  <si>
+    <t>Arla-Ecological-Sour-Cream/</t>
+  </si>
+  <si>
+    <t>Arla-Sour-Cream/</t>
   </si>
   <si>
     <t xml:space="preserve">Arla-Sour-Cream/		</t>
   </si>
   <si>
-    <t xml:space="preserve">Arla-Sour-Milk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpro-Fresh-Soy-Milk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpro-Shelf-Soy-Milk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpro-Blueberry-Soyghurt/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpro-Vanilla-Soyghurt/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arla-Mild-Vanilla-Yoghurt/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arla-Natural-Mild-Low-Fat-Yoghurt/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arla-Natural-Yoghurt/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valio-Vanilla-Yoghurt/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoggi-Strawberry-Yoghurt/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoggi-Vanilla-Yoghurt/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asparagus/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aubergine/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brown-Cap-Mushroom/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabbage/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carrots/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cucumber/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garlic/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ginger/</t>
+    <t>Arla-Sour-Milk/</t>
+  </si>
+  <si>
+    <t>Alpro-Fresh-Soy-Milk/</t>
+  </si>
+  <si>
+    <t>Alpro-Shelf-Soy-Milk/</t>
+  </si>
+  <si>
+    <t>Alpro-Blueberry-Soyghurt/</t>
+  </si>
+  <si>
+    <t>Alpro-Vanilla-Soyghurt/</t>
+  </si>
+  <si>
+    <t>Arla-Mild-Vanilla-Yoghurt/</t>
+  </si>
+  <si>
+    <t>Arla-Natural-Mild-Low-Fat-Yoghurt/</t>
+  </si>
+  <si>
+    <t>Arla-Natural-Yoghurt/</t>
+  </si>
+  <si>
+    <t>Valio-Vanilla-Yoghurt/</t>
+  </si>
+  <si>
+    <t>Yoggi-Strawberry-Yoghurt/</t>
+  </si>
+  <si>
+    <t>Yoggi-Vanilla-Yoghurt/</t>
+  </si>
+  <si>
+    <t>Asparagus/</t>
+  </si>
+  <si>
+    <t>Aubergine/</t>
+  </si>
+  <si>
+    <t>Brown-Cap-Mushroom/</t>
+  </si>
+  <si>
+    <t>Cabbage/</t>
+  </si>
+  <si>
+    <t>Carrots/</t>
+  </si>
+  <si>
+    <t>Cucumber/</t>
+  </si>
+  <si>
+    <t>Garlic/</t>
+  </si>
+  <si>
+    <t>Ginger/</t>
   </si>
   <si>
     <t xml:space="preserve">Leek/		</t>
   </si>
   <si>
-    <t xml:space="preserve">Leek/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow-Onion/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green-Bell-Pepper/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange-Bell-Pepper/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red-Bell-Pepper/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow-Bell-Pepper/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floury-Potato/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solid-Potato/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweet-Potato/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red-Beet/</t>
+    <t>Leek/</t>
+  </si>
+  <si>
+    <t>Yellow-Onion/</t>
+  </si>
+  <si>
+    <t>Green-Bell-Pepper/</t>
+  </si>
+  <si>
+    <t>Orange-Bell-Pepper/</t>
+  </si>
+  <si>
+    <t>Red-Bell-Pepper/</t>
+  </si>
+  <si>
+    <t>Yellow-Bell-Pepper/</t>
+  </si>
+  <si>
+    <t>Floury-Potato/</t>
+  </si>
+  <si>
+    <t>Solid-Potato/</t>
+  </si>
+  <si>
+    <t>Sweet-Potato/</t>
+  </si>
+  <si>
+    <t>Red-Beet/</t>
   </si>
   <si>
     <t xml:space="preserve">Red-Beet/		</t>
   </si>
   <si>
-    <t xml:space="preserve">Beef-Tomato/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular-Tomato/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vine-Tomato/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zucchini/</t>
+    <t>Beef-Tomato/</t>
+  </si>
+  <si>
+    <t>Regular-Tomato/</t>
+  </si>
+  <si>
+    <t>Vine-Tomato/</t>
+  </si>
+  <si>
+    <t>Zucchini/</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -346,72 +345,45 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -470,62 +442,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF28471F"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -578,28 +566,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:D82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:E82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="40.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="1" width="11.53"/>
+    <col min="1" max="1" width="11.54296875" style="1"/>
+    <col min="2" max="4" width="40.90625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -610,7 +597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
@@ -620,8 +607,11 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -631,8 +621,11 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -642,8 +635,11 @@
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -652,7 +648,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -662,8 +658,11 @@
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -673,8 +672,11 @@
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -684,8 +686,11 @@
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -695,8 +700,11 @@
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
@@ -706,8 +714,11 @@
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
@@ -717,8 +728,11 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -728,8 +742,11 @@
       <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -739,8 +756,11 @@
       <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -750,8 +770,11 @@
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
@@ -761,8 +784,11 @@
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -772,8 +798,11 @@
       <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -782,7 +811,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
@@ -792,8 +821,11 @@
       <c r="D18" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -802,7 +834,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -812,8 +844,11 @@
       <c r="D20" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
@@ -823,8 +858,11 @@
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -833,7 +871,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
@@ -843,8 +881,11 @@
       <c r="D23" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
@@ -853,7 +894,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
@@ -863,8 +904,11 @@
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -873,7 +917,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
@@ -883,8 +927,11 @@
       <c r="D27" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -894,8 +941,11 @@
       <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
@@ -905,8 +955,11 @@
       <c r="D29" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
@@ -916,8 +969,11 @@
       <c r="D30" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
@@ -927,8 +983,11 @@
       <c r="D31" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
@@ -938,8 +997,11 @@
       <c r="D32" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
@@ -949,8 +1011,11 @@
       <c r="D33" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="3" t="s">
         <v>36</v>
       </c>
@@ -960,8 +1025,11 @@
       <c r="D34" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
@@ -971,8 +1039,11 @@
       <c r="D35" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>38</v>
       </c>
@@ -981,7 +1052,7 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
@@ -990,7 +1061,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
@@ -999,7 +1070,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="3" t="s">
         <v>41</v>
       </c>
@@ -1008,7 +1079,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="3" t="s">
         <v>42</v>
       </c>
@@ -1018,8 +1089,11 @@
       <c r="D40" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="3" t="s">
         <v>43</v>
       </c>
@@ -1029,8 +1103,11 @@
       <c r="D41" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="3" t="s">
         <v>44</v>
       </c>
@@ -1040,8 +1117,11 @@
       <c r="D42" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="3" t="s">
         <v>45</v>
       </c>
@@ -1050,7 +1130,7 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="3" t="s">
         <v>46</v>
       </c>
@@ -1060,8 +1140,11 @@
       <c r="D44" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
         <v>47</v>
       </c>
@@ -1071,8 +1154,11 @@
       <c r="D45" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
         <v>48</v>
       </c>
@@ -1082,8 +1168,11 @@
       <c r="D46" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" s="3" t="s">
         <v>50</v>
       </c>
@@ -1093,8 +1182,11 @@
       <c r="D47" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48" s="3" t="s">
         <v>51</v>
       </c>
@@ -1103,7 +1195,7 @@
       </c>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="3" t="s">
         <v>52</v>
       </c>
@@ -1113,8 +1205,11 @@
       <c r="D49" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="3" t="s">
         <v>54</v>
       </c>
@@ -1123,7 +1218,7 @@
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="3" t="s">
         <v>55</v>
       </c>
@@ -1132,7 +1227,7 @@
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="s">
         <v>56</v>
       </c>
@@ -1141,7 +1236,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="3" t="s">
         <v>57</v>
       </c>
@@ -1151,8 +1246,11 @@
       <c r="D53" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="3" t="s">
         <v>58</v>
       </c>
@@ -1162,8 +1260,11 @@
       <c r="D54" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="3" t="s">
         <v>59</v>
       </c>
@@ -1173,8 +1274,11 @@
       <c r="D55" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" s="3" t="s">
         <v>60</v>
       </c>
@@ -1183,7 +1287,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" s="3" t="s">
         <v>61</v>
       </c>
@@ -1192,7 +1296,7 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" s="3" t="s">
         <v>62</v>
       </c>
@@ -1202,8 +1306,11 @@
       <c r="D58" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" s="3" t="s">
         <v>63</v>
       </c>
@@ -1213,8 +1320,11 @@
       <c r="D59" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" s="3" t="s">
         <v>64</v>
       </c>
@@ -1224,8 +1334,11 @@
       <c r="D60" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" s="3" t="s">
         <v>65</v>
       </c>
@@ -1235,8 +1348,11 @@
       <c r="D61" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="s">
         <v>66</v>
       </c>
@@ -1246,8 +1362,11 @@
       <c r="D62" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="3" t="s">
         <v>67</v>
       </c>
@@ -1257,8 +1376,11 @@
       <c r="D63" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="3" t="s">
         <v>68</v>
       </c>
@@ -1268,8 +1390,11 @@
       <c r="D64" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" s="3" t="s">
         <v>69</v>
       </c>
@@ -1279,8 +1404,11 @@
       <c r="D65" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="3" t="s">
         <v>70</v>
       </c>
@@ -1290,8 +1418,11 @@
       <c r="D66" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" s="3" t="s">
         <v>71</v>
       </c>
@@ -1300,7 +1431,7 @@
       </c>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" s="3" t="s">
         <v>72</v>
       </c>
@@ -1310,8 +1441,11 @@
       <c r="D68" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" s="3" t="s">
         <v>73</v>
       </c>
@@ -1321,8 +1455,11 @@
       <c r="D69" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="3" t="s">
         <v>75</v>
       </c>
@@ -1332,8 +1469,11 @@
       <c r="D70" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71" s="3" t="s">
         <v>76</v>
       </c>
@@ -1342,7 +1482,7 @@
       </c>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" s="3" t="s">
         <v>77</v>
       </c>
@@ -1352,8 +1492,11 @@
       <c r="D72" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E72" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" s="3" t="s">
         <v>78</v>
       </c>
@@ -1363,8 +1506,11 @@
       <c r="D73" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" s="3" t="s">
         <v>79</v>
       </c>
@@ -1374,8 +1520,11 @@
       <c r="D74" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" s="3" t="s">
         <v>80</v>
       </c>
@@ -1385,8 +1534,11 @@
       <c r="D75" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" s="3" t="s">
         <v>81</v>
       </c>
@@ -1395,7 +1547,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="3" t="s">
         <v>82</v>
       </c>
@@ -1405,8 +1557,11 @@
       <c r="D77" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78" s="3" t="s">
         <v>83</v>
       </c>
@@ -1416,8 +1571,11 @@
       <c r="D78" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
         <v>85</v>
       </c>
@@ -1427,8 +1585,11 @@
       <c r="D79" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" s="3" t="s">
         <v>86</v>
       </c>
@@ -1437,7 +1598,7 @@
       </c>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="3" t="s">
         <v>87</v>
       </c>
@@ -1447,8 +1608,11 @@
       <c r="D81" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="3" t="s">
         <v>88</v>
       </c>
@@ -1458,12 +1622,15 @@
       <c r="D82" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="E82" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <autoFilter ref="B1:E82" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/comparacion_categorias.xlsx
+++ b/comparacion_categorias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/lv_perdomoc1_uniandes_edu_co/Documents/MINE 2024-2/CIENCIA DE DATOS APLICADA/Talleres/Taller 2/Ciencia-de-datos.-Taller-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_8419EC7EB88E2627FDD9C4FD90BA76B65D8EC249" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E698269-8C00-47D9-ABD4-95A32014E71F}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_8419EC7EB88E2627FDD9C4FD90BA76B65D8EC249" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A59BDA1-914A-4187-BFAC-87D0A813DF95}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="93">
   <si>
     <t>train</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>Tipo</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
   <dimension ref="B1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -596,6 +599,9 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
@@ -607,7 +613,7 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -621,7 +627,7 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -635,7 +641,7 @@
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -647,6 +653,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
@@ -658,7 +665,7 @@
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -672,7 +679,7 @@
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -686,7 +693,7 @@
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -700,7 +707,7 @@
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -714,7 +721,7 @@
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -728,7 +735,7 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -742,7 +749,7 @@
       <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -756,7 +763,7 @@
       <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -770,7 +777,7 @@
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -784,7 +791,7 @@
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -798,7 +805,7 @@
       <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -810,6 +817,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
@@ -821,7 +829,7 @@
       <c r="D18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -833,6 +841,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
@@ -844,7 +853,7 @@
       <c r="D20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -858,7 +867,7 @@
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -870,6 +879,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
@@ -881,7 +891,7 @@
       <c r="D23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -893,6 +903,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
@@ -904,7 +915,7 @@
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -916,6 +927,7 @@
         <v>28</v>
       </c>
       <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
@@ -927,7 +939,7 @@
       <c r="D27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -941,7 +953,7 @@
       <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -955,7 +967,7 @@
       <c r="D29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -969,7 +981,7 @@
       <c r="D30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -983,7 +995,7 @@
       <c r="D31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -997,7 +1009,7 @@
       <c r="D32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1011,7 +1023,7 @@
       <c r="D33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1025,7 +1037,7 @@
       <c r="D34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1039,7 +1051,7 @@
       <c r="D35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1051,6 +1063,7 @@
         <v>38</v>
       </c>
       <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
@@ -1060,6 +1073,7 @@
         <v>39</v>
       </c>
       <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
@@ -1069,6 +1083,7 @@
         <v>40</v>
       </c>
       <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="3" t="s">
@@ -1078,6 +1093,7 @@
         <v>41</v>
       </c>
       <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="3" t="s">
@@ -1089,7 +1105,7 @@
       <c r="D40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1103,7 +1119,7 @@
       <c r="D41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1117,7 +1133,7 @@
       <c r="D42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1129,6 +1145,7 @@
         <v>45</v>
       </c>
       <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="3" t="s">
@@ -1140,7 +1157,7 @@
       <c r="D44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1154,7 +1171,7 @@
       <c r="D45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1168,7 +1185,7 @@
       <c r="D46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1182,7 +1199,7 @@
       <c r="D47" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1194,6 +1211,7 @@
         <v>51</v>
       </c>
       <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="3" t="s">
@@ -1205,7 +1223,7 @@
       <c r="D49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1217,6 +1235,7 @@
         <v>54</v>
       </c>
       <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="3" t="s">
@@ -1226,6 +1245,7 @@
         <v>55</v>
       </c>
       <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="s">
@@ -1235,6 +1255,7 @@
         <v>56</v>
       </c>
       <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="3" t="s">
@@ -1246,7 +1267,7 @@
       <c r="D53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1260,7 +1281,7 @@
       <c r="D54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1274,7 +1295,7 @@
       <c r="D55" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1286,6 +1307,7 @@
         <v>60</v>
       </c>
       <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" s="3" t="s">
@@ -1295,6 +1317,7 @@
         <v>61</v>
       </c>
       <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" s="3" t="s">
@@ -1306,7 +1329,7 @@
       <c r="D58" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1320,7 +1343,7 @@
       <c r="D59" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1334,7 +1357,7 @@
       <c r="D60" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1348,7 +1371,7 @@
       <c r="D61" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1362,7 +1385,7 @@
       <c r="D62" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1376,7 +1399,7 @@
       <c r="D63" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1390,7 +1413,7 @@
       <c r="D64" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1404,7 +1427,7 @@
       <c r="D65" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1418,7 +1441,7 @@
       <c r="D66" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1430,6 +1453,7 @@
         <v>71</v>
       </c>
       <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" s="3" t="s">
@@ -1441,7 +1465,7 @@
       <c r="D68" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1455,7 +1479,7 @@
       <c r="D69" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1469,7 +1493,7 @@
       <c r="D70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1481,6 +1505,7 @@
         <v>76</v>
       </c>
       <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" s="3" t="s">
@@ -1492,7 +1517,7 @@
       <c r="D72" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1506,7 +1531,7 @@
       <c r="D73" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1520,7 +1545,7 @@
       <c r="D74" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1534,7 +1559,7 @@
       <c r="D75" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1546,6 +1571,7 @@
         <v>81</v>
       </c>
       <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="3" t="s">
@@ -1557,7 +1583,7 @@
       <c r="D77" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1571,7 +1597,7 @@
       <c r="D78" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1585,7 +1611,7 @@
       <c r="D79" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1597,6 +1623,7 @@
         <v>86</v>
       </c>
       <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="3" t="s">
@@ -1608,7 +1635,7 @@
       <c r="D81" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1622,7 +1649,7 @@
       <c r="D82" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="3" t="s">
         <v>91</v>
       </c>
     </row>
